--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexv\OneDrive\Documentos\ALL_PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E051898-40AA-463E-B58D-056316B7551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7974156-3FFA-4E4F-86A0-37DA43841AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{73327F4B-F117-4363-BBDC-4A89F253E794}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73327F4B-F117-4363-BBDC-4A89F253E794}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>identifi_benefi</t>
+    <t>identificacion_benef</t>
   </si>
 </sst>
 </file>
@@ -417,13 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2783F942-F0BB-4C5F-AB1B-D2108748EF55}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="151" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:A105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -433,12 +435,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>800022450</v>
+        <v>80002250</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>71291449</v>
+        <v>71293449</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -453,27 +455,502 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>901210734</v>
+        <v>7191449</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>830510843</v>
+        <v>890402264</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>860520547</v>
+        <v>800022450</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>94448147</v>
+        <v>1001748731</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>900488165</v>
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>80002250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>71293449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>900562961</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>7191449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>890402264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>800022450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1001748731</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>890402264</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexv\OneDrive\Documentos\ALL_PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7974156-3FFA-4E4F-86A0-37DA43841AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C026F8-1A48-40E6-9221-81ED346643CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{73327F4B-F117-4363-BBDC-4A89F253E794}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{73327F4B-F117-4363-BBDC-4A89F253E794}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2783F942-F0BB-4C5F-AB1B-D2108748EF55}">
-  <dimension ref="A1:A105"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="151" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:A105"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="151" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,31 +928,6 @@
         <v>900562961</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>7191449</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>890402264</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>800022450</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1001748731</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>890402264</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
